--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>355316.218713159</v>
+        <v>357722.4416108319</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162199</v>
+        <v>11821355.91763807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437308</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6553793.616571475</v>
+        <v>6381630.341329787</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>19.89843046228963</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>40.39502321397722</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>146.5980694263805</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>21.30608602554484</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>258.4926175985024</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>11.89439304893054</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1028,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>157.7484451748616</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220189</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1139,7 +1141,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>348.180056147177</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>6.628923455408183</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>100.1385694712602</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>381.4123362240699</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1427,16 +1429,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>285.33651164953</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464081</v>
       </c>
       <c r="I12" t="n">
         <v>20.54110546596223</v>
@@ -1500,7 +1502,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
         <v>195.3773027531635</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23.34318945196252</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>89.37804881895093</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>62.17807828502601</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2011,7 +2013,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>49.73120292745067</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -2050,13 +2052,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2086,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>21.37639706403803</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.044013673388972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>28.01490760909606</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>65.31383608752321</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2320,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>308.2596422742462</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>392.4691241621585</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2491,10 +2493,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>5.700968271985019</v>
       </c>
       <c r="I25" t="n">
-        <v>95.74905717793081</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,16 +2557,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>247.0255277476657</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>3.497613144310512</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.64820379250408</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2719,10 +2721,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>56.19761863904017</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>41.87298981572562</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>176.1262882516941</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.8710203300643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>126.463905378421</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3202,7 +3204,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>48.32793771213905</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>393.9470907639073</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>27.35334490128979</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.4216953850584</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>294.7228925766561</v>
+        <v>100.0791888769552</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>101.8172970728564</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>44.21277235333765</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>304.8248212015005</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>118.7261539908217</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>128.309765016688</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>106.9706214097038</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>90.98315041848335</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>46.07723789946557</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -4071,7 +4073,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -4113,7 +4115,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4122,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>66.40269868322352</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4135,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.8269546662717</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>142.5359303380066</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451.8896763163319</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>466.328440245925</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>61.8645103389855</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L2" t="n">
-        <v>1054.568412147452</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N2" t="n">
         <v>1571.411346813777</v>
@@ -4361,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2047.45122772861</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2047.45122772861</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1663.690926863779</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1263.047529032731</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y2" t="n">
-        <v>862.1108559808214</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4406,7 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
@@ -4416,19 +4418,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1108.0844214989</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>1332.820120110135</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="Y4" t="n">
-        <v>1108.0844214989</v>
+        <v>202.6759007612825</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.752026609714</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.627435922984</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D5" t="n">
-        <v>1132.627435922984</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
         <v>2047.697635790537</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>2076.239743046839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.973206274203</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4650,10 +4652,10 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
         <v>1541.851827451147</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4762,13 +4764,13 @@
         <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4647920236465</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>856.3536062232714</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4832,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1257.290279275181</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y8" t="n">
-        <v>856.3536062232714</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634683</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>704.7239474634683</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129794</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796119</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1061.155633665445</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4990,22 +4992,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1299.499495805762</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1299.499495805762</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1299.499495805762</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1061.155633665445</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y10" t="n">
-        <v>1061.155633665445</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>824.29033176973</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C11" t="n">
-        <v>824.29033176973</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9505570973564</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L11" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M11" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="N11" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O11" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P11" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5066,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U11" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>1608.987305686471</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W11" t="n">
-        <v>1225.22700482164</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X11" t="n">
-        <v>1225.22700482164</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="Y11" t="n">
-        <v>824.29033176973</v>
+        <v>451.8896763163319</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784822</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N12" t="n">
         <v>1541.851827451147</v>
@@ -5151,7 +5153,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V12" t="n">
         <v>1409.860069912671</v>
@@ -5163,7 +5165,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5224,25 +5226,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.891263925851</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W13" t="n">
-        <v>1485.891263925851</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>1485.891263925851</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1270.693821706375</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C14" t="n">
-        <v>860.5692310196448</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>456.1053011127053</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5315,13 +5317,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8810127971431</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M15" t="n">
-        <v>187.8810127971431</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N15" t="n">
-        <v>704.7239474634683</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129794</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5476,10 +5478,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>553.0763550687942</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C17" t="n">
-        <v>553.0763550687942</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D17" t="n">
-        <v>553.0763550687942</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
-        <v>1054.568412147452</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O17" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1354.656425951752</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>954.0130281207041</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>553.0763550687942</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M18" t="n">
-        <v>675.1644281008383</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="N18" t="n">
-        <v>675.1644281008383</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O18" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q18" t="n">
         <v>2058.694762117472</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.701348351886</v>
+        <v>1022.8117031743</v>
       </c>
       <c r="C19" t="n">
-        <v>845.6079759136026</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D19" t="n">
-        <v>686.1133312365125</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E19" t="n">
-        <v>525.2025161048321</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F19" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H19" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U19" t="n">
-        <v>1016.701348351886</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V19" t="n">
-        <v>1016.701348351886</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W19" t="n">
-        <v>1016.701348351886</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.701348351886</v>
+        <v>1247.547401785535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.701348351886</v>
+        <v>1022.8117031743</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1292.201235719397</v>
+        <v>1286.674210597144</v>
       </c>
       <c r="C20" t="n">
-        <v>882.0766450326671</v>
+        <v>876.5496199104144</v>
       </c>
       <c r="D20" t="n">
-        <v>882.0766450326671</v>
+        <v>472.085690003475</v>
       </c>
       <c r="E20" t="n">
-        <v>882.0766450326671</v>
+        <v>472.085690003475</v>
       </c>
       <c r="F20" t="n">
-        <v>461.0462329863546</v>
+        <v>472.085690003475</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>63.35740589630711</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>306.503420346941</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>844.6629214559805</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L20" t="n">
-        <v>844.6629214559805</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M20" t="n">
-        <v>1492.097538835916</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>1492.097538835916</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O20" t="n">
-        <v>2135.728395253021</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P20" t="n">
-        <v>2254.17979147448</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2575.340798269772</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2480.616368753438</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2480.616368753438</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2477.541607467186</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2477.541607467186</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2093.781306602355</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>1693.137908771307</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y20" t="n">
-        <v>1292.201235719397</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M21" t="n">
-        <v>699.7525662591225</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N21" t="n">
-        <v>1347.187183639058</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O21" t="n">
-        <v>1994.621801018994</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P21" t="n">
-        <v>1994.621801018994</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8197275176949</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8197275176949</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8197275176949</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8197275176949</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5218410438605</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>318.2714499694039</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H22" t="n">
-        <v>168.6639947748606</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1496.444127175436</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1310.052359055347</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1070.503620032049</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U22" t="n">
-        <v>787.7054725781729</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V22" t="n">
-        <v>513.8197275176949</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W22" t="n">
-        <v>513.8197275176949</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X22" t="n">
-        <v>513.8197275176949</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="Y22" t="n">
-        <v>513.8197275176949</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2350.159261413228</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="C23" t="n">
-        <v>1940.034670726498</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D23" t="n">
-        <v>1535.570740819559</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E23" t="n">
-        <v>1224.197364784966</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F23" t="n">
-        <v>803.1669527386539</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>4135.95191727064</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4041.227487754305</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3819.021003701164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3561.960511960674</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3561.960511960674</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>3561.960511960674</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>3161.317114129627</v>
+        <v>1691.820822730447</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.380441077717</v>
+        <v>1691.820822730447</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L24" t="n">
-        <v>83.5301712592041</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M24" t="n">
-        <v>926.5072519537707</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.165344065389</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>822.6461779209405</v>
+        <v>540.3159715352338</v>
       </c>
       <c r="C25" t="n">
-        <v>822.6461779209405</v>
+        <v>540.3159715352338</v>
       </c>
       <c r="D25" t="n">
-        <v>822.6461779209405</v>
+        <v>540.3159715352338</v>
       </c>
       <c r="E25" t="n">
-        <v>661.7353627892601</v>
+        <v>379.4051564035532</v>
       </c>
       <c r="F25" t="n">
-        <v>497.1042368998513</v>
+        <v>214.7740305141445</v>
       </c>
       <c r="G25" t="n">
-        <v>329.8538458253947</v>
+        <v>47.52363943968791</v>
       </c>
       <c r="H25" t="n">
-        <v>180.2463906308514</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1527.656349555454</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1341.264581435364</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1101.715842412066</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1101.715842412066</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V25" t="n">
-        <v>1101.715842412066</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W25" t="n">
-        <v>822.6461779209405</v>
+        <v>778.6598336755503</v>
       </c>
       <c r="X25" t="n">
-        <v>822.6461779209405</v>
+        <v>540.3159715352338</v>
       </c>
       <c r="Y25" t="n">
-        <v>822.6461779209405</v>
+        <v>540.3159715352338</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>791.9777988942844</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="C26" t="n">
-        <v>542.4570637956322</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D26" t="n">
-        <v>542.4570637956322</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E26" t="n">
-        <v>128.1168483125289</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M26" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N26" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O26" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6251,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.973206274203</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="T26" t="n">
-        <v>1952.973206274203</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="U26" t="n">
-        <v>1952.973206274203</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="V26" t="n">
-        <v>1603.135651610684</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="W26" t="n">
-        <v>1603.135651610684</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="X26" t="n">
-        <v>1603.135651610684</v>
+        <v>1684.077941079044</v>
       </c>
       <c r="Y26" t="n">
-        <v>1202.198978558774</v>
+        <v>1283.141268027134</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M27" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N27" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O27" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1131.098935930739</v>
+        <v>862.3222662622152</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>691.2288938239317</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>531.7342491468416</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>531.7342491468416</v>
       </c>
       <c r="F28" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6409,25 +6411,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1384.772214130362</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V28" t="n">
-        <v>1384.772214130362</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W28" t="n">
-        <v>1384.772214130362</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="X28" t="n">
-        <v>1384.772214130362</v>
+        <v>1050.02197265626</v>
       </c>
       <c r="Y28" t="n">
-        <v>1160.036515519127</v>
+        <v>1050.02197265626</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>860.6179604234998</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C29" t="n">
-        <v>450.4933697367699</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D29" t="n">
-        <v>450.4933697367699</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E29" t="n">
-        <v>450.4933697367699</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F29" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8507596625949</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N29" t="n">
         <v>1209.69369432892</v>
@@ -6494,19 +6496,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>2045.958332171288</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>2045.958332171288</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.198031306457</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.55463347541</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y29" t="n">
-        <v>860.6179604234998</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L30" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M30" t="n">
-        <v>1531.257211227551</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N30" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O30" t="n">
-        <v>2048.100145893876</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6573,7 +6575,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U30" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V30" t="n">
         <v>1409.860069912671</v>
@@ -6585,7 +6587,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1014.752890035065</v>
+        <v>842.4518218293819</v>
       </c>
       <c r="C31" t="n">
-        <v>843.6595175967814</v>
+        <v>842.4518218293819</v>
       </c>
       <c r="D31" t="n">
-        <v>684.1648729196913</v>
+        <v>842.4518218293819</v>
       </c>
       <c r="E31" t="n">
-        <v>523.2540577880108</v>
+        <v>842.4518218293819</v>
       </c>
       <c r="F31" t="n">
-        <v>358.622931898602</v>
+        <v>842.4518218293819</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L31" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M31" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N31" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O31" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P31" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q31" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035411</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U31" t="n">
-        <v>1331.615243227154</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V31" t="n">
-        <v>1331.615243227154</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.615243227154</v>
+        <v>842.4518218293819</v>
       </c>
       <c r="X31" t="n">
-        <v>1331.615243227154</v>
+        <v>842.4518218293819</v>
       </c>
       <c r="Y31" t="n">
-        <v>1202.452596429109</v>
+        <v>842.4518218293819</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>542.4570637956322</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C32" t="n">
-        <v>542.4570637956322</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D32" t="n">
-        <v>542.4570637956322</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E32" t="n">
-        <v>128.1168483125289</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F32" t="n">
-        <v>128.1168483125289</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L32" t="n">
-        <v>41.76508562960205</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M32" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N32" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O32" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P32" t="n">
         <v>2047.697635790537</v>
@@ -6731,19 +6733,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.614916512031</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y32" t="n">
-        <v>952.6782434601216</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L33" t="n">
-        <v>187.8810127971426</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M33" t="n">
-        <v>704.7239474634679</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.566882129793</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O33" t="n">
-        <v>1738.409816796118</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.8087471882716</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C34" t="n">
-        <v>538.8087471882716</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D34" t="n">
-        <v>538.8087471882716</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E34" t="n">
-        <v>538.8087471882716</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F34" t="n">
-        <v>374.1776212988628</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G34" t="n">
-        <v>206.9272302244063</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H34" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U34" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V34" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W34" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X34" t="n">
-        <v>538.8087471882716</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y34" t="n">
-        <v>538.8087471882716</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2088.254281480102</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C35" t="n">
-        <v>1690.327927173125</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D35" t="n">
         <v>1285.863997266186</v>
@@ -6926,28 +6928,28 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M35" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="N35" t="n">
         <v>1592.293889628578</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="O35" t="n">
         <v>2047.697635790537</v>
@@ -7011,31 +7013,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L36" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N36" t="n">
-        <v>1592.293889628578</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7072,43 +7074,43 @@
         <v>1648.189235160388</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E37" t="n">
         <v>1156.690402913334</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M37" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P37" t="n">
         <v>2022.726251677591</v>
@@ -7117,28 +7119,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X37" t="n">
-        <v>2002.981563155502</v>
+        <v>2060.624640165668</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>339.4649771211738</v>
+        <v>142.8551754043043</v>
       </c>
       <c r="C38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817053</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W38" t="n">
-        <v>740.1083749522213</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X38" t="n">
-        <v>339.4649771211738</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.4649771211738</v>
+        <v>553.0763550687938</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M39" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O39" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>793.4728740876129</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C40" t="n">
-        <v>622.3795016493294</v>
+        <v>86.42445164307441</v>
       </c>
       <c r="D40" t="n">
-        <v>622.3795016493294</v>
+        <v>86.42445164307441</v>
       </c>
       <c r="E40" t="n">
-        <v>461.4686865176489</v>
+        <v>86.42445164307441</v>
       </c>
       <c r="F40" t="n">
-        <v>358.622931898602</v>
+        <v>86.42445164307441</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7360,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1018.208572698848</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>1018.208572698848</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.4728740876129</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1151.393135391246</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C41" t="n">
-        <v>1151.393135391246</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D41" t="n">
-        <v>746.9292054843063</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E41" t="n">
-        <v>746.9292054843063</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F41" t="n">
-        <v>746.9292054843063</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M41" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N41" t="n">
-        <v>2088.254281480102</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O41" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P41" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1952.973206274203</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X41" t="n">
-        <v>1552.329808443156</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y41" t="n">
-        <v>1151.393135391246</v>
+        <v>1183.925174712686</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>501.9589259941554</v>
+        <v>1158.40534984338</v>
       </c>
       <c r="C43" t="n">
-        <v>330.8655535558719</v>
+        <v>987.3119774050965</v>
       </c>
       <c r="D43" t="n">
-        <v>171.3709088787819</v>
+        <v>827.8173327280065</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>666.906517596326</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1246.342524902554</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U43" t="n">
-        <v>963.5443774486778</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V43" t="n">
-        <v>689.6586323881997</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W43" t="n">
-        <v>689.6586323881997</v>
+        <v>1809.184616988976</v>
       </c>
       <c r="X43" t="n">
-        <v>689.6586323881997</v>
+        <v>1570.84075484866</v>
       </c>
       <c r="Y43" t="n">
-        <v>689.6586323881997</v>
+        <v>1346.105056237424</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>736.2144366717104</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C44" t="n">
-        <v>736.2144366717104</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1207197522994</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E44" t="n">
-        <v>342.1207197522994</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F44" t="n">
-        <v>342.1207197522994</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>80.69635634743145</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L44" t="n">
-        <v>80.69635634743145</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M44" t="n">
-        <v>466.9476083001462</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N44" t="n">
-        <v>853.1988602528609</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O44" t="n">
-        <v>1239.450112205576</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P44" t="n">
-        <v>1239.450112205576</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q44" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1996.35210934022</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1996.35210934022</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1646.5145546767</v>
       </c>
       <c r="W44" t="n">
-        <v>1176.850818136036</v>
+        <v>1262.754253811869</v>
       </c>
       <c r="X44" t="n">
-        <v>1130.308153591121</v>
+        <v>862.1108559808214</v>
       </c>
       <c r="Y44" t="n">
-        <v>736.2144366717104</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.2958513022677</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C45" t="n">
-        <v>505.3007800512135</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D45" t="n">
-        <v>388.4036222706059</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E45" t="n">
-        <v>267.9108062629339</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F45" t="n">
-        <v>158.9509264454385</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>51.96081375977718</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L45" t="n">
-        <v>401.8573631427234</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M45" t="n">
-        <v>788.1086150954382</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N45" t="n">
-        <v>1174.359867048153</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O45" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1095.928434440403</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>882.6952661767319</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>706.3692843156248</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>639.2958513022677</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1004.20002678548</v>
+        <v>276.046232406238</v>
       </c>
       <c r="C46" t="n">
-        <v>833.1066543471966</v>
+        <v>276.046232406238</v>
       </c>
       <c r="D46" t="n">
-        <v>673.6120096701065</v>
+        <v>276.046232406238</v>
       </c>
       <c r="E46" t="n">
-        <v>512.7011945384261</v>
+        <v>276.046232406238</v>
       </c>
       <c r="F46" t="n">
-        <v>348.0700686490173</v>
+        <v>276.046232406238</v>
       </c>
       <c r="G46" t="n">
-        <v>180.8196775745607</v>
+        <v>276.046232406238</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>126.4387772116947</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T46" t="n">
-        <v>1560.611119000868</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U46" t="n">
-        <v>1560.611119000868</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V46" t="n">
-        <v>1560.611119000868</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.611119000868</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X46" t="n">
-        <v>1416.63543179076</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="Y46" t="n">
-        <v>1191.899733179524</v>
+        <v>463.7459388002824</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>596.4554908421626</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8061,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>72.2360729453882</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,16 +8221,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8298,16 +8300,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5690244730517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774881</v>
       </c>
       <c r="N8" t="n">
-        <v>593.882383535937</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>70.59911775623726</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8772,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M12" t="n">
-        <v>528.6762761514423</v>
+        <v>528.6762761514419</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>203.7063694346278</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>337.1293820533569</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>236.9512395019908</v>
+        <v>528.6762761514419</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P20" t="n">
-        <v>213.2972382520546</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9486,19 +9488,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>161.9303394247301</v>
+        <v>362.9022490996783</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9638,28 +9640,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>190.4213631097878</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9878,22 +9880,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>332.4660540393955</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>171.9933802602892</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832874</v>
       </c>
       <c r="M29" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
-        <v>94.81936791818303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10349,22 +10351,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P32" t="n">
-        <v>553.6531472828635</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>203.7063694346274</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10586,19 +10588,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>552.9160747585987</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10668,25 +10670,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>524.3053858067744</v>
       </c>
       <c r="O36" t="n">
-        <v>558.7215717793172</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,28 +10825,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793174</v>
       </c>
       <c r="P39" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774881</v>
       </c>
       <c r="N41" t="n">
-        <v>593.882383535937</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,22 +11144,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175286</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11297,28 +11299,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>139.1203633776758</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>430.5035548842895</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22550,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>390.2983828659826</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -22601,13 +22603,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>214.0948636091078</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>22.78436928752012</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>214.6543374933686</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>151.7041957297698</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>384.7425708038065</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -23002,10 +23004,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195428</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -23072,10 +23074,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23084,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>48.45690770555996</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>390.2983828659826</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>69.24386924264043</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,19 +23232,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23258,10 +23260,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19.00695438380018</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23273,10 +23275,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>111.300452203207</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23555,10 +23557,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>373.2937744007745</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>320.8187645093213</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23789,16 +23791,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>107.2043604288747</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.253611703064</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23953,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>286.4230153345212</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>251.445873149696</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.9699070214186</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24193,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>157.1745055375997</v>
       </c>
     </row>
     <row r="23">
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>101.937171054026</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24269,10 +24271,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.167839690578489</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.4104123706129</v>
       </c>
       <c r="I25" t="n">
-        <v>19.4335282587863</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24443,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>158.9978170321968</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24461,7 +24463,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.4306513095296</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -24500,13 +24502,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.1745055375999</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>106.7871959914745</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24664,10 +24666,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,19 +24736,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>212.6168970073594</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>100.1526795945202</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.61732129505862</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>270.173058474316</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.78344293045886</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>12.07625401595521</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176236</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.0666462400645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>111.3004522032065</v>
+        <v>305.9441559029073</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,16 +25557,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>61.16751755765824</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>121.3651148103744</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25600,10 +25602,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>99.81618006459564</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25688,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>278.2011523305691</v>
       </c>
     </row>
     <row r="42">
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>30.99194196367569</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081084</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25880,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25916,22 +25918,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>129.0012687941264</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>350.5597259532714</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26001,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>91.40524135658475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>31.3556307704454</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>93.42449318090684</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>551895.0529422986</v>
+        <v>551895.0529422985</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>551895.0529422986</v>
+        <v>551895.0529422985</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611001.4737902964</v>
+        <v>551895.0529422985</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>785820.6397325073</v>
+        <v>551895.0529422985</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>551895.0529422986</v>
+        <v>551895.0529422985</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>551895.0529422986</v>
+        <v>551895.0529422985</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461304.8099340604</v>
+        <v>551895.0529422982</v>
       </c>
     </row>
   </sheetData>
@@ -26329,13 +26331,13 @@
         <v>123668.3592209684</v>
       </c>
       <c r="H2" t="n">
-        <v>136911.7140016288</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="I2" t="n">
-        <v>176081.6079626543</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="J2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="K2" t="n">
         <v>123668.3592209684</v>
@@ -26344,7 +26346,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="M2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="N2" t="n">
         <v>123668.3592209684</v>
@@ -26353,7 +26355,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="P2" t="n">
-        <v>103370.7551601573</v>
+        <v>123668.3592209684</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>10090.76744434242</v>
       </c>
       <c r="H4" t="n">
-        <v>11192.53540110507</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="I4" t="n">
-        <v>14451.23644406671</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="J4" t="n">
         <v>10090.76744434242</v>
@@ -26457,7 +26459,7 @@
         <v>10090.76744434242</v>
       </c>
       <c r="P4" t="n">
-        <v>8402.128113625799</v>
+        <v>10090.76744434242</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-126746.9831949856</v>
       </c>
       <c r="C6" t="n">
-        <v>48208.52669812843</v>
+        <v>48208.52669812844</v>
       </c>
       <c r="D6" t="n">
-        <v>48208.5266981284</v>
+        <v>48208.52669812844</v>
       </c>
       <c r="E6" t="n">
-        <v>81836.1266981284</v>
+        <v>81836.12669812844</v>
       </c>
       <c r="F6" t="n">
-        <v>81836.1266981284</v>
+        <v>81836.12669812838</v>
       </c>
       <c r="G6" t="n">
-        <v>81836.12669812843</v>
+        <v>81836.12669812841</v>
       </c>
       <c r="H6" t="n">
-        <v>50366.81894600183</v>
+        <v>81836.12669812841</v>
       </c>
       <c r="I6" t="n">
-        <v>-5602.375982364938</v>
+        <v>81836.12669812841</v>
       </c>
       <c r="J6" t="n">
-        <v>81836.12669812837</v>
+        <v>-54758.67410776655</v>
       </c>
       <c r="K6" t="n">
+        <v>81836.12669812844</v>
+      </c>
+      <c r="L6" t="n">
         <v>81836.12669812838</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>81836.12669812841</v>
       </c>
-      <c r="M6" t="n">
-        <v>81836.12669812837</v>
-      </c>
       <c r="N6" t="n">
-        <v>81836.12669812838</v>
+        <v>81836.12669812841</v>
       </c>
       <c r="O6" t="n">
-        <v>81836.12669812838</v>
+        <v>81836.12669812844</v>
       </c>
       <c r="P6" t="n">
-        <v>71247.33803771832</v>
+        <v>81836.12669812841</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>500.9700927793178</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>338.0047407346343</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M12" t="n">
-        <v>471.1119924130248</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>244.2170912967376</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>179.3869557635733</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P20" t="n">
-        <v>119.6478749711704</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.2377209198914</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>100.3875587106358</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,22 +36600,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>276.3515302285464</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>117.7337452574854</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="M29" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P32" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>147.5918456237783</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="O36" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P39" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="N41" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>49.98397370445868</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>374.3890310734405</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357722.4416108319</v>
+        <v>351993.0457796049</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763807</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.89843046228963</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>203.6826082556305</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -752,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588048</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>142.8382101216301</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>21.30608602554484</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>260.6664503494338</v>
       </c>
       <c r="X5" t="n">
-        <v>11.89439304893054</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748616</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>92.64737864792494</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>302.8547915358174</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.628923455408183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1347,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>230.1113464098961</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.879956658077273</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>285.33651164953</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464081</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
         <v>20.54110546596223</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>86.00729762884362</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1587,13 +1587,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>388.2474135039324</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>179.3516738417458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>109.866092405015</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>98.33622924666943</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>62.17807828502601</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>85.25432609134842</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>328.9554384594968</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>21.37639706403803</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>6.545220246122979</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.31383608752321</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>392.4691241621585</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>346.8410012899759</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>100.7191714729312</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2490,10 +2490,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5.700968271985019</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.497613144310512</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>101.0222869717625</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.19761863904017</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>27.77250173713422</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2794,25 +2794,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>388.2474135039324</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>111.0627300463196</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>176.1262882516941</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>20.69995704791522</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>388.2474135039324</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>348.7838472944055</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>388.2474135039324</v>
+        <v>29.06138995817474</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128979</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0791888769552</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>99.09322231237861</v>
       </c>
     </row>
     <row r="39">
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>94.44299128958284</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>44.21277235333765</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.1318692151232</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>118.7261539908217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097038</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>401.0787239171207</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>90.98315041848335</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.8269546662717</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>876.4530309326549</v>
+        <v>849.1499363715408</v>
       </c>
       <c r="C2" t="n">
-        <v>466.328440245925</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D2" t="n">
-        <v>61.8645103389855</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811263</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147451</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1660.30778908794</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1660.30778908794</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649054</v>
+        <v>1660.30778908794</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.674210597144</v>
+        <v>1259.37111603603</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
         <v>133.2608899736458</v>
@@ -4406,31 +4406,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.851827451147</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6759007612825</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6759007612825</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6759007612825</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960203</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1341.610243600973</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1341.610243600973</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1058.812096147097</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1058.812096147097</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>779.742431655971</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6759007612825</v>
+        <v>779.742431655971</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6759007612825</v>
+        <v>555.0067330447357</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.081890330439</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="C5" t="n">
-        <v>854.9572996437093</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D5" t="n">
-        <v>450.4933697367699</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915614</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.239743046839</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="Y5" t="n">
-        <v>1675.303069994929</v>
+        <v>860.5692310196448</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4658,13 +4658,13 @@
         <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960203</v>
+        <v>1146.428351990045</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960203</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.693821706375</v>
+        <v>1782.340350635842</v>
       </c>
       <c r="C8" t="n">
-        <v>860.5692310196448</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1053011127053</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960203</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1209.69369432892</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
         <v>1209.69369432892</v>
@@ -4846,10 +4846,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960203</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>638.9020266022466</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960203</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960203</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>451.8896763163319</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C11" t="n">
-        <v>41.76508562960203</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960203</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960203</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>455.4226188863429</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>46.69433477917505</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>46.69433477917505</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>497.1688317915614</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>497.1688317915614</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N11" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O11" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>1730.766722221061</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>1123.868675817052</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>740.1083749522209</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>451.8896763163319</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y11" t="n">
-        <v>451.8896763163319</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784821</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5153,19 +5153,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960203</v>
+        <v>682.8713730711994</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960203</v>
+        <v>511.7780006329159</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960203</v>
+        <v>352.2833559558259</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960203</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960203</v>
+        <v>769.7474312821525</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815612</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>713.7440851303228</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>309.2801552233833</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>309.2801552233833</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>309.2801552233833</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959272</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962252</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N15" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>831.8168045787584</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>831.8168045787584</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>720.8409536646018</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815612</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.863997266186</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N17" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1281.599643065957</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M18" t="n">
-        <v>508.1659581184963</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N18" t="n">
-        <v>1025.008892784821</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O18" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.8117031743</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1485.891263925851</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V19" t="n">
-        <v>1485.891263925851</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W19" t="n">
-        <v>1485.891263925851</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X19" t="n">
-        <v>1247.547401785535</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.8117031743</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1286.674210597144</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="C20" t="n">
-        <v>876.5496199104144</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="D20" t="n">
-        <v>472.085690003475</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E20" t="n">
-        <v>472.085690003475</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F20" t="n">
-        <v>472.085690003475</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G20" t="n">
-        <v>63.35740589630711</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N20" t="n">
-        <v>1075.450954962252</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O20" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
         <v>2088.254281480102</v>
@@ -5791,13 +5791,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X20" t="n">
-        <v>1687.610883649054</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y20" t="n">
-        <v>1286.674210597144</v>
+        <v>1704.493980615271</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>751.4208778585604</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1268.263812524885</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P21" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>538.4003990889748</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5937,25 +5937,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1384.772214130362</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1384.772214130362</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1384.772214130362</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W22" t="n">
-        <v>1384.772214130362</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.772214130362</v>
+        <v>763.1360977002101</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>538.4003990889748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1281.599643065957</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="C23" t="n">
-        <v>1281.599643065957</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="D23" t="n">
-        <v>877.1357131590178</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E23" t="n">
-        <v>462.7954976759145</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>537.7254774811263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.568412147451</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M23" t="n">
+        <v>1054.568412147452</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1054.568412147452</v>
+      </c>
+      <c r="O23" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2088.254281480102</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="X23" t="n">
-        <v>1691.820822730447</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="Y23" t="n">
-        <v>1691.820822730447</v>
+        <v>1165.865797015991</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>540.3159715352338</v>
+        <v>789.7443911248628</v>
       </c>
       <c r="C25" t="n">
-        <v>540.3159715352338</v>
+        <v>618.6510186865793</v>
       </c>
       <c r="D25" t="n">
-        <v>540.3159715352338</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E25" t="n">
-        <v>379.4051564035532</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F25" t="n">
-        <v>214.7740305141445</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G25" t="n">
-        <v>47.52363943968791</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6177,22 +6177,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U25" t="n">
-        <v>1331.615243227154</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V25" t="n">
-        <v>1057.729498166676</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W25" t="n">
-        <v>778.6598336755503</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="X25" t="n">
-        <v>540.3159715352338</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.3159715352338</v>
+        <v>789.7443911248628</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>872.9200883626444</v>
+        <v>1575.990387702721</v>
       </c>
       <c r="C26" t="n">
-        <v>462.7954976759145</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="D26" t="n">
-        <v>462.7954976759145</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E26" t="n">
-        <v>462.7954976759145</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O26" t="n">
         <v>2047.697635790537</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V26" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>1684.077941079044</v>
+        <v>1986.211567367211</v>
       </c>
       <c r="Y26" t="n">
-        <v>1283.141268027134</v>
+        <v>1986.211567367211</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1659581184963</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.008892784821</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N27" t="n">
-        <v>1541.851827451147</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O27" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>862.3222662622152</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>691.2288938239317</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>531.7342491468416</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>531.7342491468416</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6411,25 +6411,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1543.110950192741</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1303.562211169443</v>
       </c>
       <c r="U28" t="n">
-        <v>1288.365834796576</v>
+        <v>1020.764063715567</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.365834796576</v>
+        <v>746.8783186550887</v>
       </c>
       <c r="W28" t="n">
-        <v>1288.365834796576</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.02197265626</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.02197265626</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.033101815612</v>
+        <v>942.7053689061983</v>
       </c>
       <c r="C29" t="n">
-        <v>1285.863997266186</v>
+        <v>532.5807782194684</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.863997266186</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>692.8507596625946</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8507596625946</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N29" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O29" t="n">
-        <v>1726.536628995245</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P29" t="n">
         <v>1726.536628995245</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1753.863221622598</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>1352.926548570688</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736455</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6575,7 +6575,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U30" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
         <v>1409.860069912671</v>
@@ -6587,7 +6587,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>842.4518218293819</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="C31" t="n">
-        <v>842.4518218293819</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D31" t="n">
-        <v>842.4518218293819</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E31" t="n">
-        <v>842.4518218293819</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F31" t="n">
-        <v>842.4518218293819</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2002.981563155501</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.589795035411</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1577.041056012114</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.242908558238</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.35716349776</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W31" t="n">
-        <v>842.4518218293819</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X31" t="n">
-        <v>842.4518218293819</v>
+        <v>714.5013777218257</v>
       </c>
       <c r="Y31" t="n">
-        <v>842.4518218293819</v>
+        <v>714.5013777218257</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.033101815612</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="C32" t="n">
-        <v>1285.863997266186</v>
+        <v>815.10241413491</v>
       </c>
       <c r="D32" t="n">
-        <v>1285.863997266186</v>
+        <v>815.10241413491</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>558.6080202959272</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L32" t="n">
-        <v>1075.450954962252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962252</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N32" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O32" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6730,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
         <v>2088.254281480102</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6888,22 +6888,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V34" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W34" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X34" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y34" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1678.033101815612</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="C35" t="n">
-        <v>1285.863997266186</v>
+        <v>1666.557775182021</v>
       </c>
       <c r="D35" t="n">
-        <v>1285.863997266186</v>
+        <v>1262.093845275082</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962252</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N36" t="n">
-        <v>1025.008892784821</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O36" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>2088.254281480102</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554432</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>142.8551754043043</v>
+        <v>1373.612066528674</v>
       </c>
       <c r="C38" t="n">
-        <v>41.76508562960203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960203</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L38" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M38" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N38" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O38" t="n">
-        <v>1530.854701124212</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P38" t="n">
         <v>2047.697635790537</v>
@@ -7201,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1738.416726816582</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W38" t="n">
-        <v>1354.656425951751</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X38" t="n">
-        <v>954.0130281207037</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y38" t="n">
-        <v>553.0763550687938</v>
+        <v>1373.612066528674</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L39" t="n">
-        <v>558.6080202959272</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M39" t="n">
-        <v>1075.450954962252</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N39" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.5178240813579</v>
+        <v>789.7443911248628</v>
       </c>
       <c r="C40" t="n">
-        <v>86.42445164307441</v>
+        <v>618.6510186865793</v>
       </c>
       <c r="D40" t="n">
-        <v>86.42445164307441</v>
+        <v>618.6510186865793</v>
       </c>
       <c r="E40" t="n">
-        <v>86.42445164307441</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F40" t="n">
-        <v>86.42445164307441</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W40" t="n">
-        <v>495.8616862216745</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="X40" t="n">
-        <v>257.5178240813579</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="Y40" t="n">
-        <v>257.5178240813579</v>
+        <v>789.7443911248628</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>773.7039950481965</v>
+        <v>944.4352462872621</v>
       </c>
       <c r="C41" t="n">
-        <v>773.7039950481965</v>
+        <v>534.3106556005322</v>
       </c>
       <c r="D41" t="n">
-        <v>773.7039950481965</v>
+        <v>534.3106556005322</v>
       </c>
       <c r="E41" t="n">
-        <v>773.7039950481965</v>
+        <v>534.3106556005322</v>
       </c>
       <c r="F41" t="n">
-        <v>352.673583001884</v>
+        <v>534.3106556005322</v>
       </c>
       <c r="G41" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>692.8507596625946</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N41" t="n">
-        <v>692.8507596625946</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7447,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.49398061527</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X41" t="n">
-        <v>1303.850582784223</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="Y41" t="n">
-        <v>1183.925174712686</v>
+        <v>1354.656425951752</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>558.6080202959272</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.450954962252</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129793</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1158.40534984338</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>987.3119774050965</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>827.8173327280065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>666.906517596326</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1809.184616988976</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1570.84075484866</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>1346.105056237424</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>451.8896763163319</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960203</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960203</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960203</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960203</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959272</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>1014.011766457887</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O44" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P44" t="n">
         <v>2047.697635790537</v>
@@ -7678,22 +7678,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1996.35210934022</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1996.35210934022</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V44" t="n">
-        <v>1646.5145546767</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W44" t="n">
-        <v>1262.754253811869</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X44" t="n">
-        <v>862.1108559808214</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y44" t="n">
-        <v>862.1108559808214</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
         <v>240.2510026593071</v>
@@ -7721,28 +7721,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M45" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
         <v>2088.254281480102</v>
@@ -7772,7 +7772,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>276.046232406238</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>276.046232406238</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>276.046232406238</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>276.046232406238</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>276.046232406238</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>276.046232406238</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>126.4387772116947</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1016.701348351886</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>742.815603291408</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>463.7459388002824</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>463.7459388002824</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>463.7459388002824</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>596.4554908421622</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5690244730511</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>529.1545888121299</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1981341283837</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491207</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>494.1995199774881</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730674</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>549.1401736751963</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>528.6762761514419</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>333.9158139669638</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>552.9160747585985</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>528.6762761514419</v>
+        <v>425.4271248393441</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O20" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>87.31214281472352</v>
@@ -9482,28 +9482,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491203</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>362.9022490996783</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>590.1064824525346</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>553.1935596277623</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
@@ -9956,28 +9956,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>332.4660540393955</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>68.74422894819196</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>496.3946935832874</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q29" t="n">
         <v>414.4388617681339</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N30" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10433,19 +10433,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10609,7 +10609,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,25 +10670,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>524.3053858067744</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>549.1401736751963</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>296.9001458002834</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10907,16 +10907,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808745</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>558.7215717793174</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11062,25 +11062,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>494.1995199774881</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
-        <v>200.7852390175286</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>363.9611095948391</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>552.9160747585985</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>425.4271248393441</v>
       </c>
       <c r="N45" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22552,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>390.2983828659826</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -22564,10 +22564,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,19 +22600,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>142.6565708612536</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>41.68964031725872</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>214.6543374933686</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>119.2562475067493</v>
       </c>
       <c r="X5" t="n">
-        <v>384.7425708038065</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>129.840962977198</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>103.2641763320272</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.2983828659826</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>46.16762143631823</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>80.60828839802029</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>111.300452203207</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>99.81541170126033</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23433,7 +23433,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130049</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77593127593013</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>225.2893274243503</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>112.6222492201079</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>298.5910770747214</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>107.2043604288747</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>194.7158398879887</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>71.46385214837323</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.4230153345212</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>229.4152032727905</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.1745055375997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24259,22 +24259,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>4.167839690578489</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>50.08630503141489</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>57.18052675738785</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>142.4104123706129</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.4306513095296</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -24508,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>295.6146768809745</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>106.7871959914745</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>156.7553487017546</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>17.77593127593013</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>285.5742338064174</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>100.1526795945202</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>215.2604664709982</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>17.77593127593013</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>61.41296603386672</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24970,16 +24970,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>17.77593127593013</v>
+        <v>376.9619548216878</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176236</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>305.9441559029073</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25411,7 +25411,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>297.8340840090122</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>64.85871569078088</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>121.3651148103744</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25639,16 +25639,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>2.50913205097288</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>278.2011523305691</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081084</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.944620862741886</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>129.0012687941264</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>31.3556307704454</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>551895.0529422985</v>
+        <v>551895.0529422984</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551895.0529422985</v>
+        <v>551895.0529422986</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>551895.0529422985</v>
+        <v>551895.0529422986</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>551895.0529422985</v>
+        <v>551895.0529422986</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>551895.0529422982</v>
+        <v>551895.0529422986</v>
       </c>
     </row>
   </sheetData>
@@ -26349,7 +26349,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="N2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
       <c r="O2" t="n">
         <v>123668.3592209684</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126746.9831949856</v>
+        <v>-127424.5120543797</v>
       </c>
       <c r="C6" t="n">
-        <v>48208.52669812844</v>
+        <v>47530.99783873436</v>
       </c>
       <c r="D6" t="n">
-        <v>48208.52669812844</v>
+        <v>47530.99783873436</v>
       </c>
       <c r="E6" t="n">
-        <v>81836.12669812844</v>
+        <v>81158.59783873436</v>
       </c>
       <c r="F6" t="n">
-        <v>81836.12669812838</v>
+        <v>81158.59783873436</v>
       </c>
       <c r="G6" t="n">
-        <v>81836.12669812841</v>
+        <v>81158.59783873433</v>
       </c>
       <c r="H6" t="n">
-        <v>81836.12669812841</v>
+        <v>81158.59783873436</v>
       </c>
       <c r="I6" t="n">
-        <v>81836.12669812841</v>
+        <v>81158.59783873438</v>
       </c>
       <c r="J6" t="n">
-        <v>-54758.67410776655</v>
+        <v>-55436.20296716064</v>
       </c>
       <c r="K6" t="n">
-        <v>81836.12669812844</v>
+        <v>81158.59783873435</v>
       </c>
       <c r="L6" t="n">
-        <v>81836.12669812838</v>
+        <v>81158.59783873438</v>
       </c>
       <c r="M6" t="n">
-        <v>81836.12669812841</v>
+        <v>81158.59783873438</v>
       </c>
       <c r="N6" t="n">
-        <v>81836.12669812841</v>
+        <v>81158.59783873432</v>
       </c>
       <c r="O6" t="n">
-        <v>81836.12669812844</v>
+        <v>81158.59783873436</v>
       </c>
       <c r="P6" t="n">
-        <v>81836.12669812841</v>
+        <v>81158.59783873436</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>474.8949538093261</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>400.9092955204427</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793174</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>276.3515302285464</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>460.0037840019792</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>471.1119924130245</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="O20" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>306.2096305948396</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O26" t="n">
-        <v>460.0037840019792</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>276.3515302285464</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>400.9092955204426</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q29" t="n">
         <v>324.4050573689818</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N30" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O35" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>400.9092955204426</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
-        <v>147.5918456237786</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>306.2096305948391</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>460.0037840019792</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="N45" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
